--- a/Data_generator_template.xlsx
+++ b/Data_generator_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ML_Crosstalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510DC21-F054-4F95-91DF-1453FB50F631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988A6E7-3A9D-46AC-AA65-1BDB1E1B2801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="16440" windowHeight="28320" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,18 +429,18 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="B1:E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="68.69921875" customWidth="1"/>
+    <col min="1" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="68.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -460,12 +460,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -479,15 +479,15 @@
       </c>
       <c r="F2" t="str">
         <f>"Qubits_"&amp;A2&amp;"_Lines_"&amp;B2&amp;"_TS_"&amp;C2&amp;"_Shots_"&amp;D2&amp;"_MeanDecay_"&amp;E2</f>
-        <v>Qubits_2_Lines_10_TS_10_Shots_1000_MeanDecay_5</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -501,15 +501,15 @@
       </c>
       <c r="F3" t="str">
         <f>"Qubits_"&amp;A3&amp;"_Lines_"&amp;B3&amp;"_TS_"&amp;C3&amp;"_Shots_"&amp;D3&amp;"_MeanDecay_"&amp;E3</f>
-        <v>Qubits_2_Lines_10_TS_10_Shots_1000_MeanDecay_4</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -523,15 +523,15 @@
       </c>
       <c r="F4" t="str">
         <f>"Qubits_"&amp;A4&amp;"_Lines_"&amp;B4&amp;"_TS_"&amp;C4&amp;"_Shots_"&amp;D4&amp;"_MeanDecay_"&amp;E4</f>
-        <v>Qubits_2_Lines_10_TS_10_Shots_1000_MeanDecay_3</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -545,15 +545,15 @@
       </c>
       <c r="F5" t="str">
         <f>"Qubits_"&amp;A5&amp;"_Lines_"&amp;B5&amp;"_TS_"&amp;C5&amp;"_Shots_"&amp;D5&amp;"_MeanDecay_"&amp;E5</f>
-        <v>Qubits_2_Lines_10_TS_10_Shots_1000_MeanDecay_2</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -567,7 +567,7 @@
       </c>
       <c r="F6" t="str">
         <f>"Qubits_"&amp;A6&amp;"_Lines_"&amp;B6&amp;"_TS_"&amp;C6&amp;"_Shots_"&amp;D6&amp;"_MeanDecay_"&amp;E6</f>
-        <v>Qubits_2_Lines_10_TS_10_Shots_1000_MeanDecay_1</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_generator_template.xlsx
+++ b/Data_generator_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ML_Crosstalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988A6E7-3A9D-46AC-AA65-1BDB1E1B2801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DAAA21-445F-432D-A2C7-56448D5F8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="16440" windowHeight="28320" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
   </bookViews>
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -479,7 +479,7 @@
       </c>
       <c r="F2" t="str">
         <f>"Qubits_"&amp;A2&amp;"_Lines_"&amp;B2&amp;"_TS_"&amp;C2&amp;"_Shots_"&amp;D2&amp;"_MeanDecay_"&amp;E2</f>
-        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_5</v>
+        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -501,7 +501,7 @@
       </c>
       <c r="F3" t="str">
         <f>"Qubits_"&amp;A3&amp;"_Lines_"&amp;B3&amp;"_TS_"&amp;C3&amp;"_Shots_"&amp;D3&amp;"_MeanDecay_"&amp;E3</f>
-        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_4</v>
+        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="F4" t="str">
         <f>"Qubits_"&amp;A4&amp;"_Lines_"&amp;B4&amp;"_TS_"&amp;C4&amp;"_Shots_"&amp;D4&amp;"_MeanDecay_"&amp;E4</f>
-        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="F5" t="str">
         <f>"Qubits_"&amp;A5&amp;"_Lines_"&amp;B5&amp;"_TS_"&amp;C5&amp;"_Shots_"&amp;D5&amp;"_MeanDecay_"&amp;E5</f>
-        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_2</v>
+        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -567,7 +567,7 @@
       </c>
       <c r="F6" t="str">
         <f>"Qubits_"&amp;A6&amp;"_Lines_"&amp;B6&amp;"_TS_"&amp;C6&amp;"_Shots_"&amp;D6&amp;"_MeanDecay_"&amp;E6</f>
-        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_1</v>
+        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_generator_template.xlsx
+++ b/Data_generator_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ML_Crosstalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DAAA21-445F-432D-A2C7-56448D5F8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931821A6-34AD-4ACD-BDB2-329D8445AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="16440" windowHeight="28320" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C56A25-D89C-4ABA-83AE-C678C1F4EE43}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,25 +468,25 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>100000</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <f t="shared" ref="D2:D6" si="0">INT(10000/C2)</f>
         <v>1000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="1" t="str">
         <f>"Qubits_"&amp;A2&amp;"_Lines_"&amp;B2&amp;"_TS_"&amp;C2&amp;"_Shots_"&amp;D2&amp;"_MeanDecay_"&amp;E2</f>
-        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_5</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -487,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -501,7 +508,7 @@
       </c>
       <c r="F3" t="str">
         <f>"Qubits_"&amp;A3&amp;"_Lines_"&amp;B3&amp;"_TS_"&amp;C3&amp;"_Shots_"&amp;D3&amp;"_MeanDecay_"&amp;E3</f>
-        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_4</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -509,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -523,7 +530,7 @@
       </c>
       <c r="F4" t="str">
         <f>"Qubits_"&amp;A4&amp;"_Lines_"&amp;B4&amp;"_TS_"&amp;C4&amp;"_Shots_"&amp;D4&amp;"_MeanDecay_"&amp;E4</f>
-        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_3</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -531,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -545,7 +552,7 @@
       </c>
       <c r="F5" t="str">
         <f>"Qubits_"&amp;A5&amp;"_Lines_"&amp;B5&amp;"_TS_"&amp;C5&amp;"_Shots_"&amp;D5&amp;"_MeanDecay_"&amp;E5</f>
-        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_2</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -567,7 +574,458 @@
       </c>
       <c r="F6" t="str">
         <f>"Qubits_"&amp;A6&amp;"_Lines_"&amp;B6&amp;"_TS_"&amp;C6&amp;"_Shots_"&amp;D6&amp;"_MeanDecay_"&amp;E6</f>
-        <v>Qubits_2_Lines_100000_TS_10_Shots_1000_MeanDecay_1</v>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D11" si="1">INT(10000/C7)</f>
+        <v>333</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>"Qubits_"&amp;A7&amp;"_Lines_"&amp;B7&amp;"_TS_"&amp;C7&amp;"_Shots_"&amp;D7&amp;"_MeanDecay_"&amp;E7</f>
+        <v>Qubits_2_Lines_10000_TS_30_Shots_333_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="2">INT(10000/C8)</f>
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="str">
+        <f>"Qubits_"&amp;A8&amp;"_Lines_"&amp;B8&amp;"_TS_"&amp;C8&amp;"_Shots_"&amp;D8&amp;"_MeanDecay_"&amp;E8</f>
+        <v>Qubits_2_Lines_10000_TS_25_Shots_400_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"Qubits_"&amp;A9&amp;"_Lines_"&amp;B9&amp;"_TS_"&amp;C9&amp;"_Shots_"&amp;D9&amp;"_MeanDecay_"&amp;E9</f>
+        <v>Qubits_2_Lines_10000_TS_20_Shots_500_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="3">INT(10000/C10)</f>
+        <v>666</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"Qubits_"&amp;A10&amp;"_Lines_"&amp;B10&amp;"_TS_"&amp;C10&amp;"_Shots_"&amp;D10&amp;"_MeanDecay_"&amp;E10</f>
+        <v>Qubits_2_Lines_10000_TS_15_Shots_666_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="str">
+        <f>"Qubits_"&amp;A11&amp;"_Lines_"&amp;B11&amp;"_TS_"&amp;C11&amp;"_Shots_"&amp;D11&amp;"_MeanDecay_"&amp;E11</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D13" si="4">INT(10000/C12)</f>
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="str">
+        <f>"Qubits_"&amp;A12&amp;"_Lines_"&amp;B12&amp;"_TS_"&amp;C12&amp;"_Shots_"&amp;D12&amp;"_MeanDecay_"&amp;E12</f>
+        <v>Qubits_2_Lines_10000_TS_5_Shots_2000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="str">
+        <f>"Qubits_"&amp;A13&amp;"_Lines_"&amp;B13&amp;"_TS_"&amp;C13&amp;"_Shots_"&amp;D13&amp;"_MeanDecay_"&amp;E13</f>
+        <v>Qubits_2_Lines_10000_TS_4_Shots_2500_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D19" si="5">INT(10000/C14)</f>
+        <v>3333</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="str">
+        <f>"Qubits_"&amp;A14&amp;"_Lines_"&amp;B14&amp;"_TS_"&amp;C14&amp;"_Shots_"&amp;D14&amp;"_MeanDecay_"&amp;E14</f>
+        <v>Qubits_2_Lines_10000_TS_3_Shots_3333_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="str">
+        <f>"Qubits_"&amp;A15&amp;"_Lines_"&amp;B15&amp;"_TS_"&amp;C15&amp;"_Shots_"&amp;D15&amp;"_MeanDecay_"&amp;E15</f>
+        <v>Qubits_2_Lines_10000_TS_2_Shots_5000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>"Qubits_"&amp;A16&amp;"_Lines_"&amp;B16&amp;"_TS_"&amp;C16&amp;"_Shots_"&amp;D16&amp;"_MeanDecay_"&amp;E16</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_10_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="str">
+        <f>"Qubits_"&amp;A17&amp;"_Lines_"&amp;B17&amp;"_TS_"&amp;C17&amp;"_Shots_"&amp;D17&amp;"_MeanDecay_"&amp;E17</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_100_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="str">
+        <f>"Qubits_"&amp;A18&amp;"_Lines_"&amp;B18&amp;"_TS_"&amp;C18&amp;"_Shots_"&amp;D18&amp;"_MeanDecay_"&amp;E18</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_500_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="str">
+        <f>"Qubits_"&amp;A19&amp;"_Lines_"&amp;B19&amp;"_TS_"&amp;C19&amp;"_Shots_"&amp;D19&amp;"_MeanDecay_"&amp;E19</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5000</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="str">
+        <f>"Qubits_"&amp;A20&amp;"_Lines_"&amp;B20&amp;"_TS_"&amp;C20&amp;"_Shots_"&amp;D20&amp;"_MeanDecay_"&amp;E20</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_5000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="str">
+        <f>"Qubits_"&amp;A21&amp;"_Lines_"&amp;B21&amp;"_TS_"&amp;C21&amp;"_Shots_"&amp;D21&amp;"_MeanDecay_"&amp;E21</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_10000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>"Qubits_"&amp;A22&amp;"_Lines_"&amp;B22&amp;"_TS_"&amp;C22&amp;"_Shots_"&amp;D22&amp;"_MeanDecay_"&amp;E22</f>
+        <v>Qubits_2_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="str">
+        <f>"Qubits_"&amp;A23&amp;"_Lines_"&amp;B23&amp;"_TS_"&amp;C23&amp;"_Shots_"&amp;D23&amp;"_MeanDecay_"&amp;E23</f>
+        <v>Qubits_3_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="str">
+        <f>"Qubits_"&amp;A24&amp;"_Lines_"&amp;B24&amp;"_TS_"&amp;C24&amp;"_Shots_"&amp;D24&amp;"_MeanDecay_"&amp;E24</f>
+        <v>Qubits_4_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="str">
+        <f>"Qubits_"&amp;A25&amp;"_Lines_"&amp;B25&amp;"_TS_"&amp;C25&amp;"_Shots_"&amp;D25&amp;"_MeanDecay_"&amp;E25</f>
+        <v>Qubits_5_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="str">
+        <f>"Qubits_"&amp;A26&amp;"_Lines_"&amp;B26&amp;"_TS_"&amp;C26&amp;"_Shots_"&amp;D26&amp;"_MeanDecay_"&amp;E26</f>
+        <v>Qubits_6_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="str">
+        <f>"Qubits_"&amp;A27&amp;"_Lines_"&amp;B27&amp;"_TS_"&amp;C27&amp;"_Shots_"&amp;D27&amp;"_MeanDecay_"&amp;E27</f>
+        <v>Qubits_7_Lines_10000_TS_10_Shots_1000_MeanDecay_3</v>
       </c>
     </row>
   </sheetData>

--- a/Data_generator_template.xlsx
+++ b/Data_generator_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ML_Crosstalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFE06FE-4C8B-4FC9-86E5-0925D2B857CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518044EB-CBBC-4714-94FD-EC69C25DED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
   </bookViews>
@@ -108,10 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +448,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,13 +496,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D6" si="0">INT(10000/C2)</f>
+        <f t="shared" ref="D2:D5" si="0">INT(10000/C2)</f>
         <v>1000</v>
       </c>
       <c r="E2" s="1">
@@ -523,7 +522,7 @@
       </c>
       <c r="J2" s="1" t="str">
         <f>"Qubits_"&amp;A2&amp;"_Lines_"&amp;B2&amp;"_TS_"&amp;C2&amp;"_Shots_"&amp;D2&amp;"_MeanDecay_"&amp;E2&amp;"_MeanW_"&amp;F2&amp;"_MeanJ_"&amp;G2&amp;"_Std_"&amp;H2&amp;"_Correlations_"&amp;I2</f>
-        <v>Qubits_4_Lines_10_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_0</v>
+        <v>Qubits_4_Lines_10000_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -531,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -555,9 +554,9 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" t="str">
         <f t="shared" ref="J3:J5" si="1">"Qubits_"&amp;A3&amp;"_Lines_"&amp;B3&amp;"_TS_"&amp;C3&amp;"_Shots_"&amp;D3&amp;"_MeanDecay_"&amp;E3&amp;"_MeanW_"&amp;F3&amp;"_MeanJ_"&amp;G3&amp;"_Std_"&amp;H3&amp;"_Correlations_"&amp;I3</f>
-        <v>Qubits_4_Lines_10_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_1</v>
+        <v>Qubits_4_Lines_10000_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -565,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -589,9 +588,9 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="1"/>
-        <v>Qubits_4_Lines_10_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_2</v>
+        <v>Qubits_4_Lines_10000_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -599,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -623,9 +622,9 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>Qubits_4_Lines_10_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_3</v>
+        <v>Qubits_4_Lines_10000_TS_10_Shots_1000_MeanDecay_5_MeanW_5_MeanJ_5_Std_2_Correlations_3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">

--- a/Data_generator_template.xlsx
+++ b/Data_generator_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ML_Crosstalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518044EB-CBBC-4714-94FD-EC69C25DED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8583D92D-5D8D-4CE3-A8C6-B58F2A0E1027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
